--- a/biology/Histoire de la zoologie et de la botanique/Paul_Henri_Fischer/Paul_Henri_Fischer.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Paul_Henri_Fischer/Paul_Henri_Fischer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Paul Henri Fischer est un paléontologue et un zoologiste français, né le 7 juillet 1835 à Paris et mort le 28 novembre 1893 dans cette même ville.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fils d’un marchand de tissu, il se passionne dès sa jeunesse pour l’histoire naturelle. Il fait des études de médecine d’abord à Bordeaux puis à Paris.
 En 1861, il entre au Muséum national d'histoire naturelle comme préparateur d’Adolphe d’Archiac Desmier de Saint-Simon (1802-1868) au laboratoire de paléontologie.
@@ -546,7 +560,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Article « Paul Henri Fischer » dans P. Jaussaud et É-R. Brygoo (2004), Du Jardin au Muséum en 516 biographies, Muséum national d'histoire naturelle, Paris.</t>
         </is>
